--- a/FSM_Cache.xlsx
+++ b/FSM_Cache.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -213,8 +213,8 @@
   </sheetPr>
   <dimension ref="A1:U130"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I125" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S135" activeCellId="0" sqref="S135"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K58" activeCellId="0" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="0" t="n">
         <v>0</v>
@@ -8237,6 +8237,9 @@
         <v>0</v>
       </c>
       <c r="T130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U130" s="0" t="n">
         <v>0</v>
       </c>
     </row>
